--- a/content_engineer_studio/testing.xlsx
+++ b/content_engineer_studio/testing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Dropbox\Python\Content Engineer Studio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Dropbox\Python\content_engineer_studio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9483C6-F4B3-412B-9524-BC853F87BCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3798E2-7956-4F47-B0AC-DFFA9FEA6CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="756" windowWidth="14244" windowHeight="7776" xr2:uid="{F7E6B734-54B9-435D-8347-4E48591D8B7F}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="396" windowWidth="22104" windowHeight="12660" xr2:uid="{F7E6B734-54B9-435D-8347-4E48591D8B7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/content_engineer_studio/testing.xlsx
+++ b/content_engineer_studio/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Dropbox\Python\content_engineer_studio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3798E2-7956-4F47-B0AC-DFFA9FEA6CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE205A70-C2F9-4361-96D7-2D1CC60CEAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="0" yWindow="396" windowWidth="22104" windowHeight="12660" xr2:uid="{F7E6B734-54B9-435D-8347-4E48591D8B7F}"/>
   </bookViews>

--- a/content_engineer_studio/testing.xlsx
+++ b/content_engineer_studio/testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Dropbox\Python\content_engineer_studio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE205A70-C2F9-4361-96D7-2D1CC60CEAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BB5B6C-88F1-48DD-8CB1-7727F74DE36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="396" windowWidth="22104" windowHeight="12660" xr2:uid="{F7E6B734-54B9-435D-8347-4E48591D8B7F}"/>
+    <workbookView xWindow="0" yWindow="528" windowWidth="22104" windowHeight="12564" xr2:uid="{F7E6B734-54B9-435D-8347-4E48591D8B7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="18">
   <si>
     <t>Korrekter Flow/FAQ</t>
   </si>
@@ -56,16 +56,60 @@
   </si>
   <si>
     <t>111111111111111d54</t>
+  </si>
+  <si>
+    <t>2022-01-01T16:30:30+01:00</t>
+  </si>
+  <si>
+    <t>11111-D11111111110000</t>
+  </si>
+  <si>
+    <t>https://www.cleverbot.com/conv/202202041647/WYDS891QFL_Hello-who-are-you</t>
+  </si>
+  <si>
+    <t>Transcript Link</t>
+  </si>
+  <si>
+    <t>https://www.cleverbot.com/conv/202202051853/AYAIFK7NLP_What-is-your-favourite-word</t>
+  </si>
+  <si>
+    <t>What is your favourite word?
+Can I call you dude?</t>
+  </si>
+  <si>
+    <t>https://www.cleverbot.com/conv/202202051850/AYAVE3P6ZG_Do-you-have-any-book-recommendations</t>
+  </si>
+  <si>
+    <t>Do you have any book recommendations?
+How about a movie then?
+Any movie.
+Hulk.</t>
+  </si>
+  <si>
+    <t>https://www.cleverbot.com/conv/202202051847/WXBWLVE7Z4_What-is-the-answer-to-life-the-universe-and-everything</t>
+  </si>
+  <si>
+    <t>What is the answer to life the universe and everything?
+What if there was an answer?
+What do you mean?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,10 +138,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -108,8 +153,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EDC131-CAFD-4FC1-A565-3F5D4E455030}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,7 +493,7 @@
     <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -464,77 +516,201 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="2"/>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="2">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>

--- a/content_engineer_studio/testing.xlsx
+++ b/content_engineer_studio/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Dropbox\Python\content_engineer_studio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BB5B6C-88F1-48DD-8CB1-7727F74DE36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D224FFB-2769-4961-A73B-E3E0EC8D820A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="528" windowWidth="22104" windowHeight="12564" xr2:uid="{F7E6B734-54B9-435D-8347-4E48591D8B7F}"/>
   </bookViews>
